--- a/Data/term_breakdown.xlsx
+++ b/Data/term_breakdown.xlsx
@@ -20,304 +20,304 @@
     <t xml:space="preserve">term</t>
   </si>
   <si>
-    <t xml:space="preserve">sagen, prozent, dass, spd, jahr, geben, erst, partei, berlin, grüne, sollen, kommen, stehen, gehen, cdu, halten, mehr, politisch, spiegel, erklären</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, spd, deutschland, müssen, geben, gehen, berlin, neu, jahr, deutsch, gut, sollen, union, koalition, erst, bundestag, regierung, euro, stoiber, grüne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stimme, stimmen, köhler, simonis, wahlgang, wählen, frei, mehrheit, wahl, wähler, bundesrat, sitz, dass, abstimmung, lager, kandidatin, cdu, heide, landtag, wiederwahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prozent, jahr, sagen, deutschland, euro, union, gut, erst, partei, schon, mehr, land, deutsch, kommen, geben, sehen, sollen, mensch, milliarde, liegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spd, merkel, sagen, cdu, mehr, union, prozent, kommen, steinmeier, gehen, dass, steinbrück, neu, deutschland, fdp, groß, grün, jahr, müssen, seit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, deutschland, cdu, berlin, union, sollen, politisch, mehr, jahr, kommen, sagen, merkel, schon, bleiben, seehofer, prozent, neu, vergangen, seit, stehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, jahr, spd, prozent, berlin, union, müssen, land, spiegel, sollen, seit, bundestag, erst, neu, lassen, bleiben, halten, gut, bereits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, partei, jahr, spd, prozent, müssen, mehr, seit, erst, geben, sollen, land, lassen, bereits, viele, weit, koalition, grüne, gut, bleiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, merkel, union, dass, partei, müssen, mehr, geben, land, schröder, deutsch, neu, gut, jahr, seit, berlin, fdp, spd, stehen, spiegel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, geben, prozent, spd, berlin, mehr, deutsch, union, groß, merkel, partei, neu, deutschland, schon, euro, gut, frage, bleiben, fischer, politisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, geben, jahr, deutsch, land, müssen, neu, erst, partei, sehen, deutschland, berlin, kommen, euro, gut, immer, stellen, milliarde, sollen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, deutschland, euro, neu, deutsch, berlin, spiegel, sagen, schon, spd, jahr, bereits, sehen, müssen, sprechen, fall, ende, frage, weit, tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geben, gehen, sagen, neu, groß, partei, schon, stehen, deutsch, mehr, immer, erst, müssen, euro, bundestag, spd, ganz, steinbrück, tag, fdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdp, grün, link, name, pirat, spd, cdu, wähler, sicht, text, niedersachse, new, prozent, schwarzgelb, dass, rösler, niedersachsen, sonstig, liberale, david</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, cdu, neu, deutschland, deutsch, merkel, erst, mehr, berlin, csu, gut, kommen, dass, jahr, lassen, spiegel, bundestag, prozent, weit, meyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, jahr, sagen, gehen, land, müssen, gut, union, schröder, neu, schon, seit, lassen, erklären, koalition, spd, stehen, fordern, kommen, finden, zeigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prozent, jahr, müssen, geben, berlin, neu, deutsch, sehen, zwei, union, kommen, merkel, politisch, sollen, schon, csu, erklären, grüne, woche, klar, immer, halten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, partei, spd, gehen, berlin, euro, müssen, mehr, gut, kommen, bereits, schröder, deutschland, groß, erst, zwei, bundestag, fall, npd, cdu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, geben, prozent, merkel, jahr, union, kommen, müssen, gehen, sollen, immer, berlin, frage, ganz, fdp, stehen, heißen, erklären, rund, frau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, spd, erst, groß, mehr, kommen, prozent, berlin, union, partei, dürfen, lassen, bereits, stehen, jahr, ab, ganz, schröder, frage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, mehr, partei, merkel, gehen, geben, seit, sehen, kommen, union, neu, deutsch, sollen, sprechen, dürfen, müssen, fdp, bundestag, csu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jahr, sagen, mehr, partei, dass, geben, erst, kommen, gehen, deutschland, sollen, deutsch, cdu, groß, euro, lassen, viele, schon, spd, tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, merkel, müssen, geben, gehen, neu, jahr, land, prozent, spd, deutschland, partei, deutsch, union, zwei, bundestag, woche, kanzlerin, bereits, bundesregierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, geben, sagen, prozent, berlin, partei, spd, mehr, neu, kommen, müssen, grüne, bundestag, zwei, politisch, groß, koalition, deutschland, cdu, sollen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, berlin, partei, müssen, gehen, neu, prozent, mehr, schon, gut, cdu, geben, deutschland, seit, bereits, groß, stehen, deutsch, erklären</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wowereit, klaus, dass, online, berlin, spiegel, mehr, neu, sagen, spiegeln, cdu, groß, politisch, gut, stehen, geben, seit, gehen, schon, partei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, jahr, mehr, geben, schon, neu, spiegel, seit, groß, stehen, sagen, merkel, union, sollen, woche, sehen, lassen, halten, bereits, land, gehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weste, westen, geben, osten, merkel, sagen, mehr, prozent, neu, deutschland, gehen, kind, spd, cdu, spiegel, schon, jahr, müssen, groß, erst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, prozent, sagen, geben, jahr, schröder, partei, mehr, neu, spiegel, kommen, grüne, immer, berlin, union, stoiber, online, koalition, ab, ganz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, deutschland, berlin, sagen, müssen, merkel, erst, neu, gehen, geben, berliner, kommen, italien, polizei, groß, bereits, union, gut, laut, fall, mensch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, spd, jahr, berlin, groß, erst, gut, union, fischer, kommen, sagen, frage, stehen, lassen, politisch, immer, partei, seehofer, stoiber, sprechen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, mehr, partei, jahr, merkel, prozent, deutsch, berlin, erst, gut, gehen, lassen, bundestag, stoiber, frage, euro, fdp, stellen, erklären, bereits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, geben, mehr, steinbrück, müssen, spd, groß, gehen, erst, merkel, sollen, sagen, kommen, halten, jahr, fall, euro, bundestag, prozent, immer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, partei, kommen, spd, jahr, berlin, seit, gut, land, zwei, türkisch, gehen, bereits, weit, müssen, dürfen, ganz, dabei, geben, regierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stelle, sagen, partei, jahr, gehen, neu, sollen, mehr, berlin, bundestag, kommen, rösler, seit, bleiben, fdp, weit, heißen, niebel, grüne, ende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, spd, müssen, cdu, mehr, geben, partei, berlin, neu, stehen, sollen, deutsch, deutschland, koalition, land, groß, weit, woche, regierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partei, prozent, cdu, deutschland, berlin, jahr, spd, union, mehr, geben, sollen, gut, neu, kommen, deutsch, schon, schröder, bundestag, merkel, fdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, mehr, berlin, erst, union, müssen, sollen, partei, schon, deutschland, prozent, politisch, althaus, gehen, merkel, frage, stellen, deutsch, dürfen, weit, woche, tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akt, sagen, akte, dass, deutschland, spiegel, geben, berlin, ausschuss, mehr, sollen, cdu, online, groß, merkel, erst, müssen, kommen, lassen, woche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, geben, deutschland, merkel, gehen, müssen, mehr, deutsch, sollen, bundesregierung, immer, bundestag, sprechen, csu, sehen, stehen, union, eigen, spiegel, erklären</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regel, sagen, regeln, stoiber, mehr, jahr, spd, steinbrück, müssen, seehofer, geben, csu, land, dass, union, sehen, gut, cdu, lassen, neu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, merkel, deutschland, müssen, groß, mehr, steinbrück, stehen, neu, viele, bereits, schröder, geben, online, euro, gehen, gut, kommen, grüne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, prozent, schröder, spd, geben, cdu, steinbrück, gehen, partei, erst, grüne, berlin, mehr, groß, müssen, union, ergebnis, euro, gut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, merkel, geben, deutschland, prozent, euro, partei, erst, jahr, land, groß, union, neu, spd, seit, sagen, spiegel, cdu, mehr, steinbrück</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, partei, prozent, berlin, merkel, neu, erst, dürfen, seit, sollen, deutsch, bleiben, ab, kommen, weit, geben, bereits, stehen, zwei, gehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, berlin, kommen, schon, sagen, deutschland, groß, geben, spiegel, lassen, erst, schröder, spd, sollen, politisch, land, erklären, stehen, mehr, viele, woche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, müssen, land, union, spd, prozent, berlin, gut, deutschland, mehr, geben, merkel, euro, gehen, groß, dürfen, partei, sollen, frage, cdu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, mehr, spd, müssen, sagen, berlin, spiegel, sollen, union, kommen, sehen, immer, seit, geben, schon, grüne, deutschland, ab, weit, dabei, vergangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berlin, erst, sagen, dass, neu, union, kommen, deutschland, euro, jahr, groß, frage, bundestag, spd, immer, deutsch, land, weit, politisch, dürfen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, geben, prozent, neu, mehr, merkel, stehen, jahr, schröder, deutsch, deutschland, schon, csu, kommen, immer, stellen, bundestag, fordern, ab, finden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, spd, geben, dass, partei, gut, online, prozent, deutschland, jahr, spiegel, land, koalition, politisch, groß, müssen, cdu, viele, kommen, stegner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, prozent, spd, berlin, cdu, deutsch, merkel, deutschland, euro, erst, müssen, csu, koalition, bundestag, heißen, stellen, finden, immer, vergangen, woche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, neu, dass, erst, spiegel, stehen, sehen, partei, groß, mehr, woche, dürfen, gehen, online, heißen, ende, ab, erklären, politisch, schröder, halten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, spd, merkel, union, berlin, geben, schon, stehen, gehen, cdu, schröder, erst, groß, land, stoiber, dürfen, kommen, mehr, deutsch, sagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spd, prozent, müssen, gut, geben, schröder, kommen, dass, euro, sagen, sehen, weit, deutschland, sollen, gehen, stoiber, fordern, zwei, halten, mehr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, prozent, jahr, euro, merkel, groß, dass, müssen, erst, schon, deutschland, mehr, union, kommen, partei, sprechen, zwei, lassen, milliarde, ganz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, partei, prozent, mehr, geben, gehen, berlin, spd, dass, grüne, lafontaine, schon, union, liegen, immer, frage, politisch, deutschland, fdp, neu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schily, stunde, dass, sagen, auswärtig, innenministerium, amt, stunden, geben, spd, otto, partei, groß, gut, gehen, ministerium, stellen, missbrauch, befragung, halten, prozent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merkel, spd, deutsch, kommen, deutschland, gehen, union, neu, dass, cdu, sagen, schröder, sehen, groß, steinbrück, grüne, woche, bleiben, tag, jahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, geben, land, groß, mehr, sollen, dass, gehen, berlin, dürfen, schon, prozent, merkel, lassen, halten, partei, deutsch, gut, sprechen, bundesregierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, deutschland, müssen, berlin, kommen, partei, merkel, cdu, jahr, stehen, deutsch, stoiber, sehen, spd, sollen, union, schröder, geben, land, erst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, spd, mehr, berlin, schon, deutschland, sehen, union, gut, immer, merkel, kommen, neu, steinbrück, steinmeier, bereits, müssen, beide, euro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jahr, sagen, merkel, neu, erst, prozent, politisch, lassen, seit, immer, spiegel, partei, groß, bundestag, koalition, sollen, sehen, halten, cdu, bundesregierung, online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, jahr, deutsch, erst, müssen, groß, schon, gut, kommen, lassen, mensch, politisch, kind, deutschland, zwei, mehr, stellen, vergangen, stehen, bundestag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, spd, deutschland, geben, prozent, müssen, groß, kommen, cdu, mehr, merkel, berlin, deutsch, jahr, neu, stehen, euro, steinbrück, partei, koalition, gut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, mehr, land, gehen, jahr, sollen, euro, kommen, politisch, stehen, dürfen, union, erst, weit, müssen, prozent, viele, csu, mensch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, jahr, deutschland, spd, lafontaine, union, berlin, geben, cdu, müssen, neu, immer, kommen, groß, viele, deutsch, mehr, sehen, merkel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prozent, spd, sagen, cdu, berlin, gut, partei, erst, neu, grüne, liegen, politisch, spiegel, merkel, zwei, deutschland, wahl, mehr, land, woche, deutsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, prozent, sagen, union, kommen, fischer, berlin, fdp, schröder, punkt, gut, spiegel, land, schon, schulz, gehen, umfrage, stehen, bereits, ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, partei, sagen, jahr, berlin, spd, politisch, geben, kommen, lassen, euro, woche, immer, fall, neu, mensch, schon, heißen, sollen, wegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, jahr, müssen, deutschland, gehen, gut, sehen, merkel, kind, politisch, mensch, groß, land, euro, erklären, weit, frau, mehr, tag, viele, schon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, spd, geben, jahr, merkel, deutsch, gut, schröder, mehr, land, stehen, prozent, berlin, cdu, stellen, neu, gehen, sprechen, halten, bleiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, deutschland, jahr, deutsch, mehr, müssen, merkel, geben, berlin, schon, cdu, mensch, seit, lassen, weit, ende, tag, fordern, immer, finden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, jahr, geben, csu, union, kommen, merkel, spd, dass, prozent, partei, sehen, gehen, schon, seit, frage, müssen, ab, gut, online, mehr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prozent, spd, dass, partei, berlin, sagen, cdu, groß, müssen, sollen, sehen, politisch, merkel, stehen, geben, union, althaus, immer, mehr, zwei, schon, euro, deutschland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berlin, jahr, dass, geben, union, gehen, mehr, spd, sagen, gut, deutschland, land, dürfen, bundestag, sollen, stehen, csu, bundesregierung, neu, erklären</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, geben, müssen, prozent, jahr, sollen, berlin, csu, dass, deutsch, neu, groß, seehofer, bundestag, bleiben, grüne, spiegel, mehr, bundesregierung, kommen, merkel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, merkel, cdu, neu, müssen, dass, deutschland, csu, gehen, spiegel, erst, seehofer, dürfen, union, frage, stellen, kommen, weit, klar, woche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, jahr, erst, deutsch, neu, online, berlin, schon, cdu, prozent, geben, kommen, frage, politisch, sollen, merkel, grüne, ganz, gehen, partei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, jahr, spd, erst, partei, gehen, land, sagen, groß, merkel, seehofer, csu, mehr, cdu, geben, bleiben, schon, lassen, zwei, immer, viele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, müssen, mehr, gut, jahr, schon, geben, prozent, union, sollen, steinbrück, land, gehen, berlin, erst, ganz, neu, groß, schröder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seehofer, merkel, jahr, prozent, schon, gehen, kommen, partei, csu, schröder, berlin, kanzlerin, cdu, gut, stoiber, steinbrück, koalition, union, tag, bundestag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, dass, geben, spd, deutsch, union, kommen, müssen, prozent, partei, stehen, euro, gut, viele, sprechen, woche, gehen, frage, ab, koalition, online, dafür</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, geben, mehr, berlin, deutschland, online, spiegel, land, union, cdu, schon, deutsch, lassen, dass, sollen, stehen, jahr, sehen, csu, groß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, spd, jahr, prozent, mehr, müssen, gut, land, bundestag, schröder, sollen, liegen, lassen, euro, schon, cdu, stellen, bundesregierung, union, weit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, merkel, partei, müssen, cdu, berlin, geben, gehen, erst, kommen, deutsch, schon, groß, steinbrück, sehen, online, immer, deutschland, stellen, spiegel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, geben, jahr, cdu, union, sagen, spd, schon, groß, neu, partei, berlin, kommen, sehen, koalition, steinmeier, gehen, immer, bereits, euro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uhr, polizei, anschlag, mutmaßlich, täter, opfer, berliner, ermittler, verdächtig, verletzen, ermittlung, polizist, berlin, maizière, dass, sagen, mann, de, sicherheitsbehörde, verdächtige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, geben, dass, prozent, union, spd, berlin, schon, deutschland, gehen, merkel, jahr, koalition, partei, stehen, politisch, immer, mehr, regierung, bundestag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, schulz, spd, jahr, erst, gehen, merkel, groß, gut, sehen, land, stehen, geben, mensch, euro, schon, sollen, wissen, sprechen, regierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, a, dass, i, berlin, not, jahr, mehr, groß, neu, geben, gut, stehen, müssen, kommen, seehofer, deutsch, partei, csu, regierung, dafür</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, berlin, geben, müssen, partei, prozent, sollen, neu, jahr, gehen, schon, dass, erst, immer, mensch, kommen, koalition, stehen, woche, finden, halten, ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jahr, spd, gehen, sagen, dass, deutsch, dürfen, viele, schon, merkel, grüne, deutschland, prozent, kommen, sollen, rund, sprechen, zeit, eigen, liegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, spd, cdu, müssen, neu, groß, deutsch, sagen, sollen, kommen, prozent, grüne, woche, schröder, partei, koalition, sehen, csu, ministerpräsident, mehr, vergangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, deutsch, stehen, sagen, spd, prozent, sollen, cdu, zwei, schröder, gehen, müssen, grüne, online, seit, erst, kommen, sprechen, schon, land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass, sagen, spd, gehen, merkel, kommen, jahr, stehen, land, neu, koalition, deutschland, schröder, union, halten, bleiben, beide, lassen, spiegel, fischer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagen, gehen, mehr, dass, partei, berlin, merkel, müssen, deutsch, euro, groß, seit, kommen, frage, geben, woche, bereits, bundestag, erst, ganz, zeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spende, dass, euro, spenden, million, spd, sagen, geben, partei, berlin, cdu, deutschland, mehr, müssen, seit, jahr, gut, schröder, neu, sehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">möllemann, sagen, westerwelle, deutschland, fdp, partei, spd, erst, müssen, neu, merkel, sollen, gerhardt, sehen, dass, stehen, dürfen, frage, land, jude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">europa, europäisch, mehr, geben, dass, partei, groß, viele, europäer, spd, gemeinsam, immer, mensch, sehen, brauchen, identität, jahr, national, online, politisch</t>
+    <t xml:space="preserve">jahr, sagen, spd, merkel, prozent, müssen, partei, euro, weit, online, union, lassen, dürfen, eigen, beide, bleiben, finden, mensch, führen, schröder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, union, jahr, müssen, westerwelle, fdp, steinmeier, cdu, stehen, spd, partei, politisch, viele, euro, koalition, stoiber, steinbrück, grüne, frage, lassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fischer, schily, stunde, auswärtig, ausschuss, amt, sagen, botschaft, innenministerium, untersuchungsausschuss, erlass, stunden, zeuge, klaeden, visum, uhl, missbrauch, kiew, visaaffäre, befragung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regel, regeln, sagen, spd, groß, union, partei, seit, frage, stehen, jahr, prozent, tag, etwa, sehen, spiegel, halten, ganz, heißen, ab, nehmen, schröder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online, jahr, sagen, spd, spiegel, csu, union, groß, frage, euro, merkel, viele, ganz, müssen, sehen, prozent, schröder, fdp, bereits, spiegeln, frau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">union, prozent, sagen, groß, bereits, spd, stoiber, spiegel, halten, koalition, erklären, ministerpräsident, online, merkel, frau, dabei, seehofer, rotgrün, dafür, seit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groß, partei, merkel, sagen, cdu, viele, stoiber, politisch, bleiben, euro, csu, halten, zwei, fall, sehen, vergangen, ministerpräsident, fordern, dürfen, tag, seit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spd, sagen, jahr, prozent, partei, groß, müssen, union, euro, koalition, ende, stellen, cdu, politisch, seit, ganz, grüne, zeitung, bundesregierung, million, fordern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schulz, gabriel, merkel, sagen, spd, partei, jahr, spiegel, martin, union, stehen, kanzlerin, sehen, halten, ende, zwei, fdp, bleiben, thema, frage, entscheidung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abkomme, stoiber, sagen, steinbrück, schweiz, csu, bayern, seehofer, abkommen, schweizer, müssen, partei, groß, union, spiegel, passau, bayerisch, frau, brüderle, jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, union, jahr, groß, merkel, schröder, spd, fdp, stehen, zwei, lassen, heißen, sehen, wahl, cdu, weit, zeigen, spiegel, seit, sprechen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bush, sagen, uspräsident, george, müssen, usa, merkel, spiegel, uspräsidenten, online, irak, mainz, beziehung, euro, amerikanisch, weit, seit, bereits, iran, halten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, partei, jahr, spd, npd, merkel, cdu, groß, prozent, seit, tag, stehen, sehen, politisch, sprechen, heißen, stellen, dürfen, ende, weit, ministerpräsident, mensch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prozent, jahr, partei, spd, grüne, cdu, seit, sehen, spiegel, vergangen, viele, erklären, ganz, drei, allerdings, weit, punkt, liegen, frage, dabei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, groß, müssen, merkel, partei, jahr, euro, viele, seit, ab, halten, dafür, sehen, dabei, allerdings, klar, erklären, wahl, npd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prozent, sagen, spd, partei, cdu, politisch, union, bereits, liegen, frage, weit, umfrage, heißen, csu, zwei, nehmen, drei, erklären, koalition, mehrheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stimme, stimmen, köhler, simonis, spd, prozent, wahlgang, ssw, bundesversammlung, partei, mehrheit, cdu, kandidat, sagen, grüne, wählen, ergebnis, schwan, zweitstimme, heide, carstensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, online, spiegel, ramelow, jahr, union, partei, grüne, spd, thüringen, müssen, cdu, wahl, frage, sehen, ministerpräsident, politik, politisch, bereits, seit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prozent, spd, merkel, partei, müssen, groß, fdp, jahr, bleiben, halten, stehen, ende, schröder, seit, tag, rotgrün, sehen, sagen, heute, wissen, grüne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahr, bereits, partei, merkel, sehen, dürfen, mensch, cdu, sprechen, vergangen, klar, beide, fordern, eigen, heißen, rund, viele, müssen, zwei, darauf, gelten, ministerpräsident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merkel, sagen, cdu, jahr, spd, groß, lassen, sehen, politisch, stoiber, stellen, ministerpräsident, heißen, weit, stehen, union, zeit, kanzlerin, frage, beide, csu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akt, rösler, fdp, sagen, akte, möllemann, prozent, spd, westerwelle, cdu, jahr, koalition, union, müssen, bundestagswahl, csu, ende, schwarzgelb, liegen, merkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, mensch, polizei, müssen, spd, online, opfer, groß, stehen, viele, mann, tat, prozent, bereits, uhr, berliner, heute, polen, spiegel, zeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, groß, jahr, cdu, viele, spd, weit, prozent, vergangen, mensch, ende, zeitung, ganz, tag, jung, etwa, bundeswehr, recht, regierung, rund, dürfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, prozent, müssen, groß, cdu, euro, schröder, stehen, sehen, politisch, angela, stellen, weit, spd, bundesregierung, dafür, allerdings, liegen, kanzlerin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merkel, prozent, schröder, sagen, jahr, union, koalition, spd, weit, stehen, partei, bereits, spiegel, sprechen, heißen, ministerpräsident, groß, klar, dafür, angela, liegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, merkel, union, spd, müssen, cdu, online, fdp, groß, grüne, prozent, seit, zwei, stellen, wahl, ministerpräsident, koalition, lassen, euro, rotgrün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, csu, seehofer, merkel, partei, müssen, bereits, prozent, sehen, ministerpräsident, stoiber, tag, union, frage, euro, schröder, beide, fordern, nehmen, ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, spd, schröder, grüne, partei, jahr, csu, koalition, union, stoiber, prozent, regierung, zwei, beide, wahl, bundestagswahl, heißen, wahlkampf, mehrheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, jahr, groß, sehen, schröder, partei, dürfen, weit, ab, finden, wegen, nehmen, viele, zeigen, entscheidung, union, bereits, tag, stark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, partei, spd, euro, cdu, grüne, lassen, merkel, weit, sprechen, viele, halten, frage, stehen, union, bundesregierung, fdp, beide, müssen, wissen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, schäfergümbel, groß, müssen, jahr, stehen, partei, koalition, ypsilanti, wahlkampf, tag, bereits, euro, ende, lassen, sehen, mal, steinmeier, dürfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, union, jahr, schröder, prozent, müssen, stehen, sehen, politisch, seit, euro, berliner, müntefering, ganz, erklären, dürfen, stoiber, wegen, sprechen, liegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volmer, sagen, partei, merkel, müssen, koalition, halten, sprechen, sehen, ganz, frau, tag, euro, klar, spd, union, ende, steinmeier, wahlkampf, fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahr, merkel, sagen, schröder, lassen, seit, frage, putin, ganz, stellen, ministerpräsident, sehen, bereits, bleiben, cdu, mensch, zeit, finden, stehen, nehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, müssen, merkel, union, koalition, grüne, eigen, groß, schröder, zwei, bleiben, heute, klar, tag, csu, viele, entscheidung, halten, lassen, wenige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europa, europäisch, demokratie, freiheit, staat, frieden, gesellschaft, gemeinsam, leben, europäer, politisch, viele, eu, herausforderung, brauchen, bürger, mensch, wert, generation, demokratisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, müssen, spd, koalition, groß, schröder, erklären, fdp, halten, drei, vergangen, wegen, stellen, million, euro, jedoch, etwa, thema, möglich, dürfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, jahr, prozent, stehen, viele, spd, kanzlerin, euro, ganz, mensch, finden, sehen, dürfen, angela, bundesregierung, schröder, spiegel, dabei, ende, heißen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, cdu, union, partei, jahr, viele, bereits, weit, fdp, seit, online, bleiben, dafür, halten, mensch, fordern, merkel, politisch, allerdings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groß, spd, seit, cdu, politisch, wegen, mensch, sehen, schröder, sprechen, bereits, tag, müssen, eigen, allerdings, zeit, recht, million, sagen, viele, ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grün, fdp, link, name, cdu, pirat, spd, wähler, sicht, text, niedersachse, new, mcallister, nichtwähler, partei, david, niedersachsen, piratenpartei, schwarzgelb, rotgrün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spd, sagen, partei, prozent, groß, union, euro, stehen, sehen, seit, bereits, viele, merkel, müssen, lassen, zwei, cdu, koalition, zeit, ministerpräsident, halten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partei, groß, lassen, politisch, cdu, fdp, sehen, heißen, seit, müssen, möglich, spd, zwei, eigen, etwa, prozent, stehen, ab, mann, grüne, wahlkampf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, groß, frage, bereits, jahr, zwei, partei, nehmen, wegen, cdu, euro, fdp, halten, bleiben, heißen, lassen, vergangen, merkel, etwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, grüne, groß, cdu, viele, union, politisch, lassen, merkel, bundestagswahl, erklären, koalition, zeigen, fordern, sehen, beide, wahl, thema, bereits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, prozent, cdu, stehen, union, bleiben, seit, spiegel, müssen, fordern, bundesregierung, schröder, erklären, liegen, frage, tag, kanzlerin, dabei, lassen, fdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">müssen, sagen, cdu, spd, merkel, stehen, spiegel, halten, tag, bereits, koalition, erklären, fordern, klar, stoiber, csu, entscheidung, zwei, ministerpräsident, jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahr, sagen, müssen, partei, spd, union, online, schröder, groß, bereits, csu, spiegeln, spiegel, wahl, mensch, regierung, wissen, stellen, frage, cdu, seit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, müssen, partei, bereits, lassen, schröder, viele, fdp, heißen, weit, zwei, heute, eigen, allerdings, bleiben, sprechen, grüne, klar, dürfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, jahr, spiegel, stehen, schröder, groß, müssen, weit, mensch, wissen, dabei, mann, bleiben, lassen, bundesregierung, erklären, csu, zeit, berliner, prozent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spd, partei, müssen, cdu, euro, sagen, lassen, union, grüne, spiegel, dürfen, sprechen, dafür, ganz, csu, fdp, tag, jahr, wahlkampf, steinmeier, bereits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prozent, jahr, sagen, groß, müssen, spd, fdp, lassen, zwei, ganz, seit, schröder, spiegel, halten, zeigen, bleiben, weit, ende, viele, drei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, müssen, cdu, euro, bereits, lassen, jahr, ab, bundesregierung, dürfen, laut, stehen, viele, liegen, frau, zwei, groß, partei, politisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steinbrück, merkel, uhr, schäuble, griechenland, steinmeier, sagen, kanzlerin, obama, brüderle, rede, trittin, kauder, müssen, sprechen, zeit, peer, steinbrücks, union, groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, spiegel, groß, spd, sehen, schröder, seit, bleiben, ganz, halten, nehmen, stehen, heute, fordern, politisch, union, möglich, finden, zeit, wahl, erklären</t>
+  </si>
+  <si>
+    <t xml:space="preserve">müssen, jahr, partei, sagen, prozent, spiegel, merkel, lassen, online, mensch, schröder, bereits, sprechen, nehmen, stehen, beide, frage, ab, erklären, dürfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, müssen, merkel, groß, cdu, csu, seit, politisch, schröder, stoiber, partei, stellen, koalition, online, zwei, vergangen, bleiben, ganz, ende, heute, halten, bereits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahr, spd, müssen, cdu, union, sagen, prozent, mensch, bleiben, dürfen, nehmen, ab, stellen, csu, ganz, halten, stoiber, heute, thema, dafür, eigen, steinmeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, partei, jahr, grüne, koalition, csu, wahl, schröder, union, lassen, bundestagswahl, cdu, groß, spd, sprechen, seit, stimmen, sehen, zeitung, bleiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, partei, groß, jahr, cdu, grüne, müssen, koalition, sprechen, frage, politisch, zwei, heißen, wissen, mensch, stehen, merkel, fdp, dürfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, lassen, schröder, ende, frage, cdu, tag, gabriel, halten, steinbrück, dürfen, finden, stehen, online, erklären, politik, steinmeier, euro, müssen, wahlkampf, heißen, politisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, spd, prozent, cdu, müssen, partei, sehen, mensch, stellen, sprechen, halten, stehen, csu, fordern, dabei, heißen, erklären, etwa, vergangen, wahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merkel, spd, partei, union, müssen, stehen, csu, spiegel, viele, jahr, prozent, seit, lassen, weit, ende, halten, frau, politisch, tag, ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, partei, merkel, groß, euro, stehen, spd, lassen, zwei, halten, stellen, grüne, jahr, fordern, dürfen, sehen, wegen, klar, koalition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, spd, prozent, partei, stehen, schröder, grüne, politisch, lassen, frau, heute, halten, mal, wissen, ab, zwei, fdp, seit, ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">althaus, sagen, stimmen, schwan, spd, merkel, cdu, euro, partei, ab, wahl, sprechen, schröder, rotgrün, stellen, weit, möglich, dürfen, wenige, union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lafontaine, pds, gysi, sagen, wasg, oskar, linksbündnis, gregor, bisky, partei, linkspartei, schröder, spd, stehen, müssen, wahlalternative, koalition, cdu, heute, bundestagswahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merkel, partei, cdu, seehofer, prozent, groß, spd, csu, stehen, schröder, union, seit, fdp, bleiben, eigen, wahlkampf, vergangen, erklären, müssen, angela, koalition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, union, euro, jahr, bundesregierung, stehen, ab, partei, dürfen, halten, drei, wegen, stellen, regierung, million, zeigen, zwei, gesetz, etwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, cdu, spd, frage, spiegel, halten, union, grüne, bleiben, fordern, koalition, heißen, bundesregierung, partei, seit, tag, fall, zeitung, ganz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anschlag, polizei, uhr, amri, ermittler, behörde, mutmaßlich, polizist, ermittlung, verdächtig, täter, sicherheitsbehörde, bundesanwaltschaft, italien, hinweis, töten, opfer, weihnachtsmarkt, berliner, verletzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prozent, partei, jahr, euro, grüne, müssen, schröder, spd, politisch, groß, weit, stellen, liegen, finden, bereits, sehen, allerdings, zeigen, heute, cdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prozent, sagen, spd, merkel, cdu, euro, partei, union, schröder, csu, müssen, seit, frage, sehen, politisch, ende, bereits, bundestagswahl, fdp, bundesregierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">müssen, prozent, euro, spd, sagen, spiegel, viele, frau, koalition, partei, sehen, liegen, jahr, million, cdu, ende, halten, erklären, frage, beide, berliner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, union, euro, spd, weit, csu, müssen, sprechen, bleiben, wahl, regierung, prozent, jahr, online, klar, milliarde, nehmen, finden, bundestagswahl, cdu, zeitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">euro, spd, partei, sagen, müssen, bundesregierung, koalition, union, ende, politisch, frage, stellen, milliarde, wahl, berliner, schröder, nehmen, drei, ganz, heißen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, spd, jahr, euro, stehen, prozent, cdu, fdp, spiegel, csu, bereits, ministerpräsident, zeit, lassen, schröder, berliner, ab, vergangen, fordern, jung, allerdings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weste, osten, westen, ddr, jahr, ostdeutsch, merkel, not, of, kohl, ostdeutschland, ost, spiegel, online, union, krieg, west, diktatur, stoiber, mensch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, stehen, seit, euro, frage, weit, spd, stellen, merkel, halten, dabei, regierung, finden, allerdings, spiegel, liegen, zwei, klar, zeit, sehen, beide, rund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, partei, stehen, jahr, heißen, weit, spiegel, tag, finden, schröder, erklären, spd, wahl, politisch, heute, seit, dürfen, müssen, entscheidung, prozent, darauf, wenige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, jahr, müssen, prozent, frage, dürfen, sehen, erklären, zeitung, viele, frau, seit, koalition, halten, recht, zeit, bundesregierung, zeigen, euro, schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, lassen, politisch, dürfen, groß, partei, weit, seehofer, eigen, rund, csu, ministerpräsident, ende, zeit, stehen, erklären, dafür, seit, laut, koalition, mal, dabei, fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiegeln, sagen, online, jahr, groß, csu, union, cdu, fdp, ganz, lassen, halten, tag, stellen, bleiben, seit, stoiber, partei, ministerpräsident, stehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prozent, sagen, stegner, spd, carstensen, jahr, cdu, merkel, groß, ergebnis, hochrechnung, steinbrück, weit, sehen, frau, finden, sprechen, landtag, tag, regierung, dürfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seehofer, sagen, csu, jahr, partei, glos, prozent, groß, bayerisch, union, stoiber, beckstein, ministerpräsident, stehen, spd, merkel, lassen, bayern, schröder, seit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merkel, spd, jahr, cdu, union, prozent, fdp, stehen, halten, lassen, koalition, online, finden, partei, fordern, steinbrück, thema, möglich, ministerpräsident, eigen, dürfen, dabei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, groß, jahr, weit, dürfen, online, sprechen, ende, wegen, koalition, heißen, möglich, schröder, dafür, zeit, union, berliner, jedoch, wissen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, prozent, union, müssen, merkel, wahl, fdp, stoiber, halten, koalition, lassen, klar, schröder, frage, mensch, seit, spd, dürfen, politik, bundestagswahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, partei, prozent, cdu, stehen, zwei, spd, seit, zeigen, ab, viele, berliner, mann, bereits, politisch, möglich, ende, wegen, recht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdu, groß, sagen, spd, stehen, bleiben, partei, seit, dürfen, tag, möglich, sprechen, dabei, stellen, drei, wenige, mensch, recht, weit, csu, dafür</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, jahr, spd, partei, merkel, csu, prozent, spiegel, müssen, seit, stellen, tag, bereits, dürfen, online, ab, heißen, fall, viele, beide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, euro, prozent, jahr, union, spd, ab, cdu, stellen, schröder, fordern, mensch, dafür, dürfen, ende, bundesregierung, koalition, rund, regierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahr, partei, online, euro, sagen, weit, stellen, viele, prozent, politisch, zwei, sprechen, erklären, lassen, union, tag, berliner, mensch, ganz, finden, wegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, partei, spiegel, jahr, prozent, groß, spd, stehen, union, online, zwei, frage, schröder, viele, weit, fdp, bleiben, heißen, nehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahr, sagen, union, spd, euro, de, hawk, maizière, bereits, partei, seit, ende, frage, viele, erklären, ganz, problem, csu, zulassung, thema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, merkel, union, spd, jahr, weit, ende, zwei, bereits, grüne, stoiber, stimmen, dürfen, bundesregierung, euro, bleiben, klar, dafür, fordern, rotgrün, mensch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, schreiber, csu, jahr, union, prozent, seehofer, milliarde, cdu, euro, fdp, stoiber, partei, ministerpräsident, ende, steinbrück, viele, merkel, grüne, stehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagen, müssen, spiegel, union, grüne, csu, jahr, frage, stoiber, schröder, sehen, koalition, regierung, steinbrück, ganz, online, dürfen, groß, politisch, prozent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spende, stelle, sagen, spenden, jahr, partei, cdu, lindner, groß, spd, fdp, rechenschaftsbericht, stehen, zwei, weit, grüne, spiegel, allerdings, dabei, drei, geld, sehen, berliner</t>
   </si>
 </sst>
 </file>
